--- a/InputData/land/CiLVpUAAbP/Chg in Land Val per Unit Area Affected by Pol.xlsx
+++ b/InputData/land/CiLVpUAAbP/Chg in Land Val per Unit Area Affected by Pol.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emily.Mangan\Dropbox\India EPS\InputData UPDATE FOR INDIA\land\CiLVpUAAbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\land\CiLVpUAAbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66511530-FB46-441E-86D7-3F5D5603C39E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="600" windowWidth="18495" windowHeight="6285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="CiLVpUAAbP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,8 +122,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +135,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,10 +171,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -165,8 +183,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,12 +522,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -537,8 +555,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -588,15 +606,20 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{4C6EBB80-6579-44E4-B6CF-FAA22411CF5A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -674,13 +697,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
